--- a/biology/Botanique/Orcuttia/Orcuttia.xlsx
+++ b/biology/Botanique/Orcuttia/Orcuttia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Orcuttia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae[2], originaire d'Amérique du Nord, qui comprend cinq espèces.
-Ce sont des plantes herbacées annuelles aquatiques, aux tiges de 5 à 20 cm de haut. L'inflorescence est un épi ou un racème[2].
+Orcuttia est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Amérique du Nord, qui comprend cinq espèces.
+Ce sont des plantes herbacées annuelles aquatiques, aux tiges de 5 à 20 cm de haut. L'inflorescence est un épi ou un racème.
 Étymologie
-le nom générique « Orcuttia » est un hommage au botaniste californien, Charles Russell Orcutt[2].</t>
+le nom générique « Orcuttia » est un hommage au botaniste californien, Charles Russell Orcutt.</t>
         </is>
       </c>
     </row>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (1 mai 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (1 mai 2017) :
 Orcuttia californica Vasey
 Orcuttia inaequalis Hoover
 Orcuttia pilosa Hoover
